--- a/good seeds .xlsx
+++ b/good seeds .xlsx
@@ -23,9 +23,23 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>pasqu</t>
+  </si>
+  <si>
+    <t>mara</t>
+  </si>
+  <si>
+    <t>rossa</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +47,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,8 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -370,265 +401,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AA7D94-D660-44B9-BEDC-A9D9D38619A0}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>201</v>
       </c>
-      <c r="B1">
+      <c r="D1" s="1">
         <v>301</v>
       </c>
-      <c r="C1">
+      <c r="E1">
+        <v>899</v>
+      </c>
+      <c r="H1">
         <v>102</v>
       </c>
-      <c r="D1">
+      <c r="N1">
         <v>702</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>204</v>
       </c>
-      <c r="B2">
+      <c r="D2" s="1">
         <v>302</v>
       </c>
-      <c r="C2">
+      <c r="E2">
+        <v>898</v>
+      </c>
+      <c r="H2">
         <v>103</v>
       </c>
-      <c r="D2">
+      <c r="N2" s="1">
         <v>703</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>205</v>
       </c>
-      <c r="B3">
+      <c r="D3" s="1">
         <v>304</v>
       </c>
-      <c r="C3">
+      <c r="E3">
+        <v>897</v>
+      </c>
+      <c r="H3" s="1">
         <v>105</v>
       </c>
-      <c r="D3">
+      <c r="I3">
+        <v>199</v>
+      </c>
+      <c r="N3" s="2">
         <v>704</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>216</v>
-      </c>
-      <c r="B4">
+        <v>219</v>
+      </c>
+      <c r="D4" s="1">
         <v>307</v>
       </c>
-      <c r="C4">
+      <c r="E4">
+        <v>896</v>
+      </c>
+      <c r="H4" s="4">
         <v>106</v>
       </c>
-      <c r="D4">
+      <c r="N4">
         <v>705</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>218</v>
-      </c>
-      <c r="B5">
+        <v>223</v>
+      </c>
+      <c r="D5">
         <v>313</v>
       </c>
-      <c r="C5">
+      <c r="H5" s="1">
         <v>107</v>
       </c>
-      <c r="D5">
+      <c r="I5">
+        <v>198</v>
+      </c>
+      <c r="N5">
         <v>706</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>219</v>
-      </c>
-      <c r="B6">
+        <v>130</v>
+      </c>
+      <c r="D6" s="1">
         <v>315</v>
       </c>
-      <c r="C6">
+      <c r="E6">
+        <v>895</v>
+      </c>
+      <c r="H6" s="1">
         <v>108</v>
       </c>
-      <c r="D6">
+      <c r="I6">
+        <v>197</v>
+      </c>
+      <c r="N6">
         <v>707</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>223</v>
-      </c>
-      <c r="B7">
+        <v>132</v>
+      </c>
+      <c r="D7" s="1">
         <v>316</v>
       </c>
-      <c r="C7">
+      <c r="E7">
+        <v>894</v>
+      </c>
+      <c r="H7" s="1">
         <v>109</v>
       </c>
-      <c r="D7">
+      <c r="I7">
+        <v>196</v>
+      </c>
+      <c r="N7" s="1">
         <v>709</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="O7">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>133</v>
+      </c>
+      <c r="D8">
         <v>317</v>
       </c>
-      <c r="C8">
+      <c r="H8" s="1">
         <v>110</v>
       </c>
-      <c r="D8">
+      <c r="I8">
+        <v>134</v>
+      </c>
+      <c r="N8" s="1">
         <v>712</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="O8">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>729</v>
+      </c>
+      <c r="D9" s="1">
         <v>318</v>
       </c>
-      <c r="C9">
+      <c r="E9">
+        <v>893</v>
+      </c>
+      <c r="H9">
         <v>111</v>
       </c>
-      <c r="D9">
+      <c r="N9">
         <v>713</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>731</v>
+      </c>
+      <c r="D10">
         <v>319</v>
       </c>
-      <c r="C10">
+      <c r="H10" s="1">
         <v>112</v>
       </c>
-      <c r="D10">
+      <c r="I10">
+        <v>135</v>
+      </c>
+      <c r="N10" s="1">
         <v>714</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="O10">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>732</v>
+      </c>
+      <c r="D11">
         <v>320</v>
       </c>
-      <c r="C11">
+      <c r="H11">
         <v>114</v>
       </c>
-      <c r="D11">
+      <c r="N11" s="3">
         <v>715</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="O11">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>902</v>
+      </c>
+      <c r="D12" s="1">
         <v>322</v>
       </c>
-      <c r="C12">
+      <c r="E12">
+        <v>892</v>
+      </c>
+      <c r="H12" s="1">
         <v>115</v>
       </c>
-      <c r="D12">
+      <c r="I12">
+        <v>136</v>
+      </c>
+      <c r="N12" s="1">
         <v>717</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="O12">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>905</v>
+      </c>
+      <c r="D13">
         <v>324</v>
       </c>
-      <c r="C13">
+      <c r="H13" s="1">
         <v>116</v>
       </c>
-      <c r="D13">
+      <c r="I13">
+        <v>137</v>
+      </c>
+      <c r="N13" s="1">
         <v>720</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="O13">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>906</v>
+      </c>
+      <c r="D14">
         <v>327</v>
       </c>
-      <c r="C14">
+      <c r="H14">
         <v>117</v>
       </c>
-      <c r="D14">
+      <c r="N14" s="1">
         <v>721</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="O14">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>910</v>
+      </c>
+      <c r="D15" s="1">
         <v>333</v>
       </c>
-      <c r="C15">
+      <c r="E15">
+        <v>891</v>
+      </c>
+      <c r="H15">
         <v>120</v>
       </c>
-      <c r="D15">
+      <c r="N15" s="1">
         <v>722</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16">
+      <c r="O15">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>911</v>
+      </c>
+      <c r="D16" s="1">
+        <v>806</v>
+      </c>
+      <c r="E16">
+        <v>890</v>
+      </c>
+      <c r="H16">
         <v>121</v>
       </c>
-      <c r="D16">
+      <c r="N16" s="3">
         <v>723</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17">
+      <c r="O16">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>912</v>
+      </c>
+      <c r="D17" s="1">
+        <v>807</v>
+      </c>
+      <c r="E17">
+        <v>889</v>
+      </c>
+      <c r="H17">
         <v>124</v>
       </c>
-      <c r="D17">
+      <c r="N17" s="1">
         <v>724</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18">
+      <c r="O17">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>913</v>
+      </c>
+      <c r="D18">
+        <v>808</v>
+      </c>
+      <c r="H18" s="1">
         <v>125</v>
       </c>
-      <c r="D18">
+      <c r="I18">
+        <v>138</v>
+      </c>
+      <c r="N18" s="3">
         <v>725</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19">
+      <c r="O18">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>914</v>
+      </c>
+      <c r="D19">
+        <v>809</v>
+      </c>
+      <c r="H19" s="1">
         <v>127</v>
       </c>
-      <c r="D19">
+      <c r="I19">
+        <v>139</v>
+      </c>
+      <c r="N19" s="1">
         <v>726</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20">
+      <c r="O19">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>915</v>
+      </c>
+      <c r="H20" s="1">
         <v>129</v>
       </c>
-      <c r="D20">
+      <c r="I20">
+        <v>140</v>
+      </c>
+      <c r="N20" s="1">
         <v>727</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>130</v>
-      </c>
-      <c r="D21">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>132</v>
-      </c>
-      <c r="D22">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>133</v>
-      </c>
-      <c r="D23">
-        <v>732</v>
+      <c r="O20">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>